--- a/tag_builder/Output/SCADA_Tags_IDH.xlsx
+++ b/tag_builder/Output/SCADA_Tags_IDH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgesgregoire/Documents/Code/Omron-AB-Converter/tag_builder/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6947EFA9-0A7E-6F46-97FD-CB21B43E33DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99961D9E-3E45-C647-945C-CFBE84FE8527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48840" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{3A7ADB92-B1BE-7B4D-BC92-D4AC0C3314FA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29360" windowHeight="17800" xr2:uid="{3A7ADB92-B1BE-7B4D-BC92-D4AC0C3314FA}"/>
   </bookViews>
   <sheets>
     <sheet name="SCADA_Tags_IDH" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="969">
   <si>
     <t>Type</t>
   </si>
@@ -883,10 +883,6 @@
     <t>DM5211</t>
   </si>
   <si>
-    <t>CC3_OUTPUT
-CC3_OUTPUT</t>
-  </si>
-  <si>
     <t>CC3_TEMPERATURE</t>
   </si>
   <si>
@@ -905,10 +901,6 @@
     <t>DM5209</t>
   </si>
   <si>
-    <t>CC3_TEMPERATURE
-CC3_TEMPERATURE</t>
-  </si>
-  <si>
     <t>STER_P66_SETPOINT</t>
   </si>
   <si>
@@ -994,10 +986,6 @@
   </si>
   <si>
     <t>DM5215</t>
-  </si>
-  <si>
-    <t>CC3_SETPOINT_AO
-CC3_SETPOINT_AO</t>
   </si>
   <si>
     <t>T51-12_STPT_AO</t>
@@ -3826,9 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D683DE49-4B01-9744-84EC-A024C0093E57}">
   <dimension ref="A1:J297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3865,13 +3851,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6441,7 +6427,7 @@
         <v>ABR_Central.Central.T51_12_STPT_AO</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6465,47 +6451,45 @@
         <v>CP_CC3_OUTPUT</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J88" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
-        <v>ABR_Central.Central.CC3_OUTPUT
-CC3_OUTPUT</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>ABR_Central.Central.CC3_OUTPUT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
         <v>284</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>285</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>286</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>287</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="G89" t="s">
-        <v>289</v>
-      </c>
       <c r="H89" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CC3_TEMPERATURE</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J89" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
-        <v>ABR_Central.Central.CC3_TEMPERATURE
-CC3_TEMPERATURE</v>
+        <v>ABR_Central.Central.CC3_TEMPERATURE</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -6513,26 +6497,26 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90" t="s">
         <v>291</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>292</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>293</v>
       </c>
-      <c r="F90" t="s">
-        <v>294</v>
-      </c>
-      <c r="G90" t="s">
-        <v>295</v>
-      </c>
       <c r="H90" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_STER_P66_SETPOINT</v>
       </c>
       <c r="I90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J90" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -6544,16 +6528,16 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91" t="s">
         <v>296</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>297</v>
-      </c>
-      <c r="E91" t="s">
-        <v>298</v>
-      </c>
-      <c r="F91" t="s">
-        <v>299</v>
       </c>
       <c r="G91" t="s">
         <v>158</v>
@@ -6578,10 +6562,10 @@
         <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E92" t="s">
         <v>152</v>
@@ -6609,19 +6593,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93" t="s">
         <v>302</v>
       </c>
-      <c r="C93" t="s">
+      <c r="F93" t="s">
         <v>303</v>
-      </c>
-      <c r="D93" t="s">
-        <v>301</v>
-      </c>
-      <c r="E93" t="s">
-        <v>304</v>
-      </c>
-      <c r="F93" t="s">
-        <v>305</v>
       </c>
       <c r="G93" t="s">
         <v>153</v>
@@ -6643,26 +6627,26 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" t="s">
         <v>306</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>307</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>308</v>
       </c>
-      <c r="F94" t="s">
-        <v>309</v>
-      </c>
-      <c r="G94" t="s">
-        <v>310</v>
-      </c>
       <c r="H94" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_COUNTER_PV</v>
       </c>
       <c r="I94" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -6677,13 +6661,13 @@
         <v>109</v>
       </c>
       <c r="D95" t="s">
+        <v>309</v>
+      </c>
+      <c r="E95" t="s">
+        <v>310</v>
+      </c>
+      <c r="F95" t="s">
         <v>311</v>
-      </c>
-      <c r="E95" t="s">
-        <v>312</v>
-      </c>
-      <c r="F95" t="s">
-        <v>313</v>
       </c>
       <c r="G95" t="s">
         <v>108</v>
@@ -6700,44 +6684,43 @@
         <v>ABR_Central.Central.STER_P117_SETPOINT</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" t="s">
         <v>314</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>315</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>316</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>317</v>
       </c>
-      <c r="F96" t="s">
-        <v>318</v>
-      </c>
-      <c r="G96" t="s">
-        <v>319</v>
-      </c>
       <c r="H96" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CC3_SETPOINT_AO</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J96" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
-        <v>ABR_Central.Central.CC3_SETPOINT_AO
-CC3_SETPOINT_AO</v>
+        <v>ABR_Central.Central.CC3_SETPOINT_AO</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E97" t="s">
         <v>274</v>
@@ -6762,10 +6745,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
         <v>269</v>
@@ -6790,10 +6773,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B99" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E99" t="s">
         <v>264</v>
@@ -6818,13 +6801,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E100" t="s">
         <v>260</v>
@@ -6849,13 +6832,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E101" t="s">
         <v>260</v>
@@ -6880,29 +6863,29 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" t="s">
         <v>327</v>
       </c>
-      <c r="D102" t="s">
+      <c r="G102" t="s">
+        <v>327</v>
+      </c>
+      <c r="H102" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-12_MAN_OUTPUT</v>
+      </c>
+      <c r="I102" t="s">
         <v>328</v>
-      </c>
-      <c r="E102" t="s">
-        <v>329</v>
-      </c>
-      <c r="F102" t="s">
-        <v>330</v>
-      </c>
-      <c r="G102" t="s">
-        <v>330</v>
-      </c>
-      <c r="H102" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-12_MAN_OUTPUT</v>
-      </c>
-      <c r="I102" t="s">
-        <v>331</v>
       </c>
       <c r="J102" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -6911,10 +6894,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E103" t="s">
         <v>254</v>
@@ -6939,10 +6922,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s">
         <v>249</v>
@@ -6967,10 +6950,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E105" t="s">
         <v>222</v>
@@ -6995,10 +6978,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E106" t="s">
         <v>210</v>
@@ -7023,13 +7006,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D107" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E107" t="s">
         <v>183</v>
@@ -7054,7 +7037,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B108" t="s">
         <v>180</v>
@@ -7082,10 +7065,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E109" t="s">
         <v>172</v>
@@ -7110,29 +7093,29 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>337</v>
+      </c>
+      <c r="E110" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" t="s">
         <v>339</v>
       </c>
-      <c r="D110" t="s">
+      <c r="G110" t="s">
+        <v>339</v>
+      </c>
+      <c r="H110" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-5_PID_OUTPUT_FORCE</v>
+      </c>
+      <c r="I110" t="s">
         <v>340</v>
-      </c>
-      <c r="E110" t="s">
-        <v>341</v>
-      </c>
-      <c r="F110" t="s">
-        <v>342</v>
-      </c>
-      <c r="G110" t="s">
-        <v>342</v>
-      </c>
-      <c r="H110" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-5_PID_OUTPUT_FORCE</v>
-      </c>
-      <c r="I110" t="s">
-        <v>343</v>
       </c>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7141,10 +7124,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E111" t="s">
         <v>167</v>
@@ -7169,10 +7152,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E112" t="s">
         <v>162</v>
@@ -7197,26 +7180,26 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G113" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H113" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FROM_STER_CIP_STEP</v>
       </c>
       <c r="I113" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J113" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7225,10 +7208,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E114" t="s">
         <v>101</v>
@@ -7253,13 +7236,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E115" t="s">
         <v>119</v>
@@ -7284,13 +7267,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E116" t="s">
         <v>107</v>
@@ -7315,10 +7298,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E117" t="s">
         <v>96</v>
@@ -7343,29 +7326,29 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118" t="s">
+        <v>352</v>
+      </c>
+      <c r="E118" t="s">
+        <v>353</v>
+      </c>
+      <c r="F118" t="s">
         <v>354</v>
       </c>
-      <c r="D118" t="s">
+      <c r="G118" t="s">
+        <v>354</v>
+      </c>
+      <c r="H118" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_W_PID_OUTPUT_FORCE</v>
+      </c>
+      <c r="I118" t="s">
         <v>355</v>
-      </c>
-      <c r="E118" t="s">
-        <v>356</v>
-      </c>
-      <c r="F118" t="s">
-        <v>357</v>
-      </c>
-      <c r="G118" t="s">
-        <v>357</v>
-      </c>
-      <c r="H118" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_W_PID_OUTPUT_FORCE</v>
-      </c>
-      <c r="I118" t="s">
-        <v>358</v>
       </c>
       <c r="J118" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7374,10 +7357,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E119" t="s">
         <v>91</v>
@@ -7402,10 +7385,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E120" t="s">
         <v>86</v>
@@ -7430,10 +7413,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E121" t="s">
         <v>81</v>
@@ -7458,10 +7441,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E122" t="s">
         <v>76</v>
@@ -7486,29 +7469,29 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
+        <v>360</v>
+      </c>
+      <c r="D123" t="s">
+        <v>361</v>
+      </c>
+      <c r="E123" t="s">
+        <v>362</v>
+      </c>
+      <c r="F123" t="s">
         <v>363</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123" t="s">
+        <v>363</v>
+      </c>
+      <c r="H123" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_S_PID_OUTPUT_FORCE</v>
+      </c>
+      <c r="I123" t="s">
         <v>364</v>
-      </c>
-      <c r="E123" t="s">
-        <v>365</v>
-      </c>
-      <c r="F123" t="s">
-        <v>366</v>
-      </c>
-      <c r="G123" t="s">
-        <v>366</v>
-      </c>
-      <c r="H123" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_S_PID_OUTPUT_FORCE</v>
-      </c>
-      <c r="I123" t="s">
-        <v>367</v>
       </c>
       <c r="J123" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7517,10 +7500,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E124" t="s">
         <v>71</v>
@@ -7545,10 +7528,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
         <v>66</v>
@@ -7573,10 +7556,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B126" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E126" t="s">
         <v>61</v>
@@ -7601,10 +7584,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
         <v>56</v>
@@ -7629,10 +7612,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B128" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E128" t="s">
         <v>51</v>
@@ -7657,10 +7640,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E129" t="s">
         <v>46</v>
@@ -7685,29 +7668,29 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
+        <v>371</v>
+      </c>
+      <c r="D130" t="s">
+        <v>372</v>
+      </c>
+      <c r="E130" t="s">
+        <v>373</v>
+      </c>
+      <c r="F130" t="s">
         <v>374</v>
       </c>
-      <c r="D130" t="s">
+      <c r="G130" t="s">
+        <v>374</v>
+      </c>
+      <c r="H130" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-2_PID_OUTPUT_FORCE</v>
+      </c>
+      <c r="I130" t="s">
         <v>375</v>
-      </c>
-      <c r="E130" t="s">
-        <v>376</v>
-      </c>
-      <c r="F130" t="s">
-        <v>377</v>
-      </c>
-      <c r="G130" t="s">
-        <v>377</v>
-      </c>
-      <c r="H130" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-2_PID_OUTPUT_FORCE</v>
-      </c>
-      <c r="I130" t="s">
-        <v>378</v>
       </c>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7716,10 +7699,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B131" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E131" t="s">
         <v>41</v>
@@ -7744,10 +7727,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B132" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E132" t="s">
         <v>36</v>
@@ -7772,10 +7755,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E133" t="s">
         <v>31</v>
@@ -7800,10 +7783,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E134" t="s">
         <v>26</v>
@@ -7828,29 +7811,29 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
+        <v>380</v>
+      </c>
+      <c r="D135" t="s">
+        <v>381</v>
+      </c>
+      <c r="E135" t="s">
+        <v>382</v>
+      </c>
+      <c r="F135" t="s">
         <v>383</v>
       </c>
-      <c r="D135" t="s">
+      <c r="G135" t="s">
+        <v>383</v>
+      </c>
+      <c r="H135" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-1_PID_OUTPUT_FORCE</v>
+      </c>
+      <c r="I135" t="s">
         <v>384</v>
-      </c>
-      <c r="E135" t="s">
-        <v>385</v>
-      </c>
-      <c r="F135" t="s">
-        <v>386</v>
-      </c>
-      <c r="G135" t="s">
-        <v>386</v>
-      </c>
-      <c r="H135" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-1_PID_OUTPUT_FORCE</v>
-      </c>
-      <c r="I135" t="s">
-        <v>387</v>
       </c>
       <c r="J135" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7859,10 +7842,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E136" t="s">
         <v>21</v>
@@ -7887,10 +7870,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E137" t="s">
         <v>16</v>
@@ -7915,10 +7898,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -7943,29 +7926,29 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" t="s">
+        <v>389</v>
+      </c>
+      <c r="C139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" t="s">
         <v>391</v>
       </c>
-      <c r="B139" t="s">
+      <c r="F139" t="s">
         <v>392</v>
       </c>
-      <c r="C139" t="s">
-        <v>393</v>
-      </c>
-      <c r="E139" t="s">
-        <v>394</v>
-      </c>
-      <c r="F139" t="s">
-        <v>395</v>
-      </c>
       <c r="G139" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H139" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRI_EAST_OSC_ARM_ON</v>
       </c>
       <c r="I139" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J139" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -7974,29 +7957,29 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" t="s">
+        <v>394</v>
+      </c>
+      <c r="E140" t="s">
         <v>391</v>
       </c>
-      <c r="B140" t="s">
-        <v>396</v>
-      </c>
-      <c r="C140" t="s">
-        <v>397</v>
-      </c>
-      <c r="E140" t="s">
-        <v>394</v>
-      </c>
       <c r="F140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H140" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRI_EAST_OSC_ARM_OFF</v>
       </c>
       <c r="I140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J140" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8005,32 +7988,32 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B141" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" t="s">
+        <v>396</v>
+      </c>
+      <c r="D141" t="s">
+        <v>397</v>
+      </c>
+      <c r="E141" t="s">
         <v>398</v>
       </c>
-      <c r="C141" t="s">
+      <c r="F141" t="s">
         <v>399</v>
       </c>
-      <c r="D141" t="s">
-        <v>400</v>
-      </c>
-      <c r="E141" t="s">
-        <v>401</v>
-      </c>
-      <c r="F141" t="s">
-        <v>402</v>
-      </c>
       <c r="G141" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H141" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_PULSE_IN</v>
       </c>
       <c r="I141" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J141" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8039,26 +8022,26 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E142" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G142" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H142" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLAG_EAST_CIP</v>
       </c>
       <c r="I142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J142" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8067,26 +8050,26 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F143" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G143" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H143" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLAG_EAST_4TH</v>
       </c>
       <c r="I143" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J143" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8095,26 +8078,26 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B144" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F144" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G144" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H144" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLAG_EAST_3RD</v>
       </c>
       <c r="I144" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J144" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8123,26 +8106,26 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E145" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F145" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G145" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H145" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLAG_EAST_2ND</v>
       </c>
       <c r="I145" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J145" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8151,26 +8134,26 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B146" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E146" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F146" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G146" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H146" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLAG_EAST_1ST</v>
       </c>
       <c r="I146" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J146" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8179,29 +8162,29 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D147" t="s">
+        <v>416</v>
+      </c>
+      <c r="E147" t="s">
+        <v>417</v>
+      </c>
+      <c r="F147" t="s">
         <v>418</v>
       </c>
-      <c r="D147" t="s">
-        <v>419</v>
-      </c>
-      <c r="E147" t="s">
-        <v>420</v>
-      </c>
-      <c r="F147" t="s">
-        <v>421</v>
-      </c>
       <c r="G147" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H147" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_STERILIZER_OZONE_ALM2</v>
       </c>
       <c r="I147" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J147" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8210,29 +8193,29 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B148" t="s">
+        <v>419</v>
+      </c>
+      <c r="D148" t="s">
+        <v>420</v>
+      </c>
+      <c r="E148" t="s">
+        <v>421</v>
+      </c>
+      <c r="F148" t="s">
         <v>422</v>
       </c>
-      <c r="D148" t="s">
-        <v>423</v>
-      </c>
-      <c r="E148" t="s">
-        <v>424</v>
-      </c>
-      <c r="F148" t="s">
-        <v>425</v>
-      </c>
       <c r="G148" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H148" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_STERILIZER_OZONE_ALM</v>
       </c>
       <c r="I148" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J148" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8241,26 +8224,26 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E149" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F149" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G149" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H149" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHILLER1_COMP1</v>
       </c>
       <c r="I149" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8269,29 +8252,29 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B150" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" t="s">
+        <v>428</v>
+      </c>
+      <c r="F150" t="s">
         <v>429</v>
       </c>
-      <c r="D150" t="s">
-        <v>430</v>
-      </c>
-      <c r="E150" t="s">
-        <v>431</v>
-      </c>
-      <c r="F150" t="s">
-        <v>432</v>
-      </c>
       <c r="G150" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H150" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHEMETATOR_CIP_LOW_FLOW_ALARM</v>
       </c>
       <c r="I150" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8300,29 +8283,29 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B151" t="s">
+        <v>430</v>
+      </c>
+      <c r="D151" t="s">
+        <v>431</v>
+      </c>
+      <c r="E151" t="s">
+        <v>432</v>
+      </c>
+      <c r="F151" t="s">
         <v>433</v>
       </c>
-      <c r="D151" t="s">
-        <v>434</v>
-      </c>
-      <c r="E151" t="s">
-        <v>435</v>
-      </c>
-      <c r="F151" t="s">
-        <v>436</v>
-      </c>
       <c r="G151" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H151" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51_12_SUMMER_WINTER</v>
       </c>
       <c r="I151" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8331,26 +8314,26 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s">
+        <v>434</v>
+      </c>
+      <c r="E152" t="s">
+        <v>435</v>
+      </c>
+      <c r="F152" t="s">
+        <v>436</v>
+      </c>
+      <c r="G152" t="s">
+        <v>436</v>
+      </c>
+      <c r="H152" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-12_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I152" t="s">
         <v>437</v>
-      </c>
-      <c r="E152" t="s">
-        <v>438</v>
-      </c>
-      <c r="F152" t="s">
-        <v>439</v>
-      </c>
-      <c r="G152" t="s">
-        <v>439</v>
-      </c>
-      <c r="H152" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-12_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I152" t="s">
-        <v>440</v>
       </c>
       <c r="J152" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8359,29 +8342,29 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B153" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F153" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G153" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H153" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-12_PID_LOOP_STATUS</v>
       </c>
       <c r="I153" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J153" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8390,29 +8373,29 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B154" t="s">
+        <v>439</v>
+      </c>
+      <c r="D154" t="s">
+        <v>440</v>
+      </c>
+      <c r="E154" t="s">
+        <v>441</v>
+      </c>
+      <c r="F154" t="s">
         <v>442</v>
       </c>
-      <c r="D154" t="s">
+      <c r="G154" t="s">
+        <v>442</v>
+      </c>
+      <c r="H154" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_T51-3_PID_AUTO_MAN</v>
+      </c>
+      <c r="I154" t="s">
         <v>443</v>
-      </c>
-      <c r="E154" t="s">
-        <v>444</v>
-      </c>
-      <c r="F154" t="s">
-        <v>445</v>
-      </c>
-      <c r="G154" t="s">
-        <v>445</v>
-      </c>
-      <c r="H154" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_T51-3_PID_AUTO_MAN</v>
-      </c>
-      <c r="I154" t="s">
-        <v>446</v>
       </c>
       <c r="J154" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8421,29 +8404,29 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B155" t="s">
+        <v>444</v>
+      </c>
+      <c r="D155" t="s">
+        <v>445</v>
+      </c>
+      <c r="E155" t="s">
+        <v>446</v>
+      </c>
+      <c r="F155" t="s">
         <v>447</v>
       </c>
-      <c r="D155" t="s">
+      <c r="G155" t="s">
+        <v>447</v>
+      </c>
+      <c r="H155" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_40M_MODIFIED</v>
+      </c>
+      <c r="I155" t="s">
         <v>448</v>
-      </c>
-      <c r="E155" t="s">
-        <v>449</v>
-      </c>
-      <c r="F155" t="s">
-        <v>450</v>
-      </c>
-      <c r="G155" t="s">
-        <v>450</v>
-      </c>
-      <c r="H155" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_40M_MODIFIED</v>
-      </c>
-      <c r="I155" t="s">
-        <v>451</v>
       </c>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8452,26 +8435,26 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B156" t="s">
+        <v>449</v>
+      </c>
+      <c r="E156" t="s">
+        <v>450</v>
+      </c>
+      <c r="F156" t="s">
+        <v>451</v>
+      </c>
+      <c r="G156" t="s">
+        <v>451</v>
+      </c>
+      <c r="H156" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-5_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I156" t="s">
         <v>452</v>
-      </c>
-      <c r="E156" t="s">
-        <v>453</v>
-      </c>
-      <c r="F156" t="s">
-        <v>454</v>
-      </c>
-      <c r="G156" t="s">
-        <v>454</v>
-      </c>
-      <c r="H156" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-5_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I156" t="s">
-        <v>455</v>
       </c>
       <c r="J156" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8480,26 +8463,26 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B157" t="s">
+        <v>453</v>
+      </c>
+      <c r="E157" t="s">
+        <v>454</v>
+      </c>
+      <c r="F157" t="s">
+        <v>455</v>
+      </c>
+      <c r="G157" t="s">
+        <v>455</v>
+      </c>
+      <c r="H157" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_W_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I157" t="s">
         <v>456</v>
-      </c>
-      <c r="E157" t="s">
-        <v>457</v>
-      </c>
-      <c r="F157" t="s">
-        <v>458</v>
-      </c>
-      <c r="G157" t="s">
-        <v>458</v>
-      </c>
-      <c r="H157" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_W_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I157" t="s">
-        <v>459</v>
       </c>
       <c r="J157" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8508,29 +8491,29 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B158" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F158" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G158" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H158" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_W_PID_LOOP_STATUS</v>
       </c>
       <c r="I158" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J158" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8539,26 +8522,26 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B159" t="s">
+        <v>458</v>
+      </c>
+      <c r="E159" t="s">
+        <v>459</v>
+      </c>
+      <c r="F159" t="s">
+        <v>460</v>
+      </c>
+      <c r="G159" t="s">
+        <v>460</v>
+      </c>
+      <c r="H159" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_S_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I159" t="s">
         <v>461</v>
-      </c>
-      <c r="E159" t="s">
-        <v>462</v>
-      </c>
-      <c r="F159" t="s">
-        <v>463</v>
-      </c>
-      <c r="G159" t="s">
-        <v>463</v>
-      </c>
-      <c r="H159" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_S_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I159" t="s">
-        <v>464</v>
       </c>
       <c r="J159" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8567,29 +8550,29 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F160" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G160" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H160" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_S_PID_LOOP_STATUS</v>
       </c>
       <c r="I160" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8598,26 +8581,26 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B161" t="s">
+        <v>463</v>
+      </c>
+      <c r="E161" t="s">
+        <v>464</v>
+      </c>
+      <c r="F161" t="s">
+        <v>465</v>
+      </c>
+      <c r="G161" t="s">
+        <v>465</v>
+      </c>
+      <c r="H161" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-2_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I161" t="s">
         <v>466</v>
-      </c>
-      <c r="E161" t="s">
-        <v>467</v>
-      </c>
-      <c r="F161" t="s">
-        <v>468</v>
-      </c>
-      <c r="G161" t="s">
-        <v>468</v>
-      </c>
-      <c r="H161" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-2_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I161" t="s">
-        <v>469</v>
       </c>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8626,29 +8609,29 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B162" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H162" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-2_PID_LOOP_STATUS</v>
       </c>
       <c r="I162" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J162" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8657,26 +8640,26 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s">
+        <v>468</v>
+      </c>
+      <c r="E163" t="s">
+        <v>469</v>
+      </c>
+      <c r="F163" t="s">
+        <v>470</v>
+      </c>
+      <c r="G163" t="s">
+        <v>470</v>
+      </c>
+      <c r="H163" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-1_PID_LOOP_STATUS_DI</v>
+      </c>
+      <c r="I163" t="s">
         <v>471</v>
-      </c>
-      <c r="E163" t="s">
-        <v>472</v>
-      </c>
-      <c r="F163" t="s">
-        <v>473</v>
-      </c>
-      <c r="G163" t="s">
-        <v>473</v>
-      </c>
-      <c r="H163" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-1_PID_LOOP_STATUS_DI</v>
-      </c>
-      <c r="I163" t="s">
-        <v>474</v>
       </c>
       <c r="J163" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8685,29 +8668,29 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B164" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F164" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G164" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H164" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-1_PID_LOOP_STATUS</v>
       </c>
       <c r="I164" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J164" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8716,29 +8699,29 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B165" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" t="s">
+        <v>474</v>
+      </c>
+      <c r="E165" t="s">
+        <v>475</v>
+      </c>
+      <c r="F165" t="s">
         <v>476</v>
       </c>
-      <c r="C165" t="s">
-        <v>477</v>
-      </c>
-      <c r="E165" t="s">
-        <v>478</v>
-      </c>
-      <c r="F165" t="s">
-        <v>479</v>
-      </c>
       <c r="G165" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H165" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_7MESH_INDICATION</v>
       </c>
       <c r="I165" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8747,26 +8730,26 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B166" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E166" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F166" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G166" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H166" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_7MESH_SELECTION</v>
       </c>
       <c r="I166" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J166" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8775,29 +8758,29 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B167" t="s">
+        <v>480</v>
+      </c>
+      <c r="C167" t="s">
+        <v>481</v>
+      </c>
+      <c r="E167" t="s">
+        <v>482</v>
+      </c>
+      <c r="F167" t="s">
         <v>483</v>
       </c>
-      <c r="C167" t="s">
-        <v>484</v>
-      </c>
-      <c r="E167" t="s">
-        <v>485</v>
-      </c>
-      <c r="F167" t="s">
-        <v>486</v>
-      </c>
       <c r="G167" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H167" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_8MESH_INDICATION</v>
       </c>
       <c r="I167" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J167" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8806,26 +8789,26 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B168" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E168" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F168" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G168" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H168" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_8MESH_SELECTION</v>
       </c>
       <c r="I168" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8834,29 +8817,29 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B169" t="s">
+        <v>487</v>
+      </c>
+      <c r="C169" t="s">
+        <v>488</v>
+      </c>
+      <c r="E169" t="s">
+        <v>489</v>
+      </c>
+      <c r="F169" t="s">
         <v>490</v>
       </c>
-      <c r="C169" t="s">
-        <v>491</v>
-      </c>
-      <c r="E169" t="s">
-        <v>492</v>
-      </c>
-      <c r="F169" t="s">
-        <v>493</v>
-      </c>
       <c r="G169" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H169" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_8MESH_S_INDICATION</v>
       </c>
       <c r="I169" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8865,26 +8848,26 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B170" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E170" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F170" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G170" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H170" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_8MESH_S_SELECTION</v>
       </c>
       <c r="I170" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J170" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8893,29 +8876,29 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B171" t="s">
+        <v>494</v>
+      </c>
+      <c r="C171" t="s">
+        <v>495</v>
+      </c>
+      <c r="E171" t="s">
+        <v>496</v>
+      </c>
+      <c r="F171" t="s">
         <v>497</v>
       </c>
-      <c r="C171" t="s">
-        <v>498</v>
-      </c>
-      <c r="E171" t="s">
-        <v>499</v>
-      </c>
-      <c r="F171" t="s">
-        <v>500</v>
-      </c>
       <c r="G171" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H171" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_20MESH_INDICATION</v>
       </c>
       <c r="I171" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J171" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8924,26 +8907,26 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B172" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E172" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F172" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G172" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H172" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_20MESH_SELECTION</v>
       </c>
       <c r="I172" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J172" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8952,32 +8935,32 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B173" t="s">
+        <v>501</v>
+      </c>
+      <c r="C173" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" t="s">
+        <v>503</v>
+      </c>
+      <c r="E173" t="s">
         <v>504</v>
       </c>
-      <c r="C173" t="s">
+      <c r="F173" t="s">
         <v>505</v>
       </c>
-      <c r="D173" t="s">
-        <v>506</v>
-      </c>
-      <c r="E173" t="s">
-        <v>507</v>
-      </c>
-      <c r="F173" t="s">
-        <v>508</v>
-      </c>
       <c r="G173" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H173" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_40MESH_INDICATION</v>
       </c>
       <c r="I173" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J173" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -8986,26 +8969,26 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B174" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E174" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F174" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G174" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H174" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_40MESH_SELECTION</v>
       </c>
       <c r="I174" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J174" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9014,32 +8997,32 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B175" t="s">
+        <v>509</v>
+      </c>
+      <c r="C175" t="s">
+        <v>510</v>
+      </c>
+      <c r="D175" t="s">
+        <v>511</v>
+      </c>
+      <c r="E175" t="s">
         <v>512</v>
       </c>
-      <c r="C175" t="s">
+      <c r="F175" t="s">
         <v>513</v>
       </c>
-      <c r="D175" t="s">
-        <v>514</v>
-      </c>
-      <c r="E175" t="s">
-        <v>515</v>
-      </c>
-      <c r="F175" t="s">
-        <v>516</v>
-      </c>
       <c r="G175" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H175" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_40MESH_S_INDICATION</v>
       </c>
       <c r="I175" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J175" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9048,26 +9031,26 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E176" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F176" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G176" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H176" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_40MESH_S_SELECTION</v>
       </c>
       <c r="I176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J176" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9076,29 +9059,29 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B177" t="s">
+        <v>514</v>
+      </c>
+      <c r="C177" t="s">
+        <v>515</v>
+      </c>
+      <c r="E177" t="s">
+        <v>516</v>
+      </c>
+      <c r="F177" t="s">
         <v>517</v>
       </c>
-      <c r="C177" t="s">
-        <v>518</v>
-      </c>
-      <c r="E177" t="s">
-        <v>519</v>
-      </c>
-      <c r="F177" t="s">
-        <v>520</v>
-      </c>
       <c r="G177" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H177" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_REGRINDING_INDICATION</v>
       </c>
       <c r="I177" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9107,26 +9090,26 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B178" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E178" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F178" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G178" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H178" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_REGRINDING_SELECTION</v>
       </c>
       <c r="I178" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9135,29 +9118,29 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B179" t="s">
+        <v>521</v>
+      </c>
+      <c r="D179" t="s">
+        <v>522</v>
+      </c>
+      <c r="E179" t="s">
+        <v>523</v>
+      </c>
+      <c r="F179" t="s">
         <v>524</v>
       </c>
-      <c r="D179" t="s">
-        <v>525</v>
-      </c>
-      <c r="E179" t="s">
-        <v>526</v>
-      </c>
-      <c r="F179" t="s">
-        <v>527</v>
-      </c>
       <c r="G179" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H179" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_VALVE_1</v>
       </c>
       <c r="I179" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J179" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9166,29 +9149,29 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B180" t="s">
+        <v>525</v>
+      </c>
+      <c r="D180" t="s">
+        <v>526</v>
+      </c>
+      <c r="E180" t="s">
+        <v>527</v>
+      </c>
+      <c r="F180" t="s">
         <v>528</v>
       </c>
-      <c r="D180" t="s">
-        <v>529</v>
-      </c>
-      <c r="E180" t="s">
-        <v>530</v>
-      </c>
-      <c r="F180" t="s">
-        <v>531</v>
-      </c>
       <c r="G180" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H180" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_VALVE_2</v>
       </c>
       <c r="I180" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J180" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9197,29 +9180,29 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B181" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D181" t="s">
+        <v>526</v>
+      </c>
+      <c r="E181" t="s">
+        <v>530</v>
+      </c>
+      <c r="F181" t="s">
+        <v>531</v>
+      </c>
+      <c r="G181" t="s">
+        <v>531</v>
+      </c>
+      <c r="H181" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_SWECO_VALVE_3</v>
+      </c>
+      <c r="I181" t="s">
         <v>529</v>
-      </c>
-      <c r="E181" t="s">
-        <v>533</v>
-      </c>
-      <c r="F181" t="s">
-        <v>534</v>
-      </c>
-      <c r="G181" t="s">
-        <v>534</v>
-      </c>
-      <c r="H181" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_SWECO_VALVE_3</v>
-      </c>
-      <c r="I181" t="s">
-        <v>532</v>
       </c>
       <c r="J181" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9228,29 +9211,29 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B182" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D182" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E182" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F182" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G182" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H182" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_VALVE_4</v>
       </c>
       <c r="I182" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9259,29 +9242,29 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B183" t="s">
+        <v>535</v>
+      </c>
+      <c r="C183" t="s">
+        <v>536</v>
+      </c>
+      <c r="E183" t="s">
+        <v>537</v>
+      </c>
+      <c r="F183" t="s">
         <v>538</v>
       </c>
-      <c r="C183" t="s">
-        <v>539</v>
-      </c>
-      <c r="E183" t="s">
-        <v>540</v>
-      </c>
-      <c r="F183" t="s">
-        <v>541</v>
-      </c>
       <c r="G183" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H183" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_WALTER_MESH_INDICATION</v>
       </c>
       <c r="I183" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J183" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9290,26 +9273,26 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E184" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F184" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G184" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H184" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SWECO_WALTER_MESH_SELECTION</v>
       </c>
       <c r="I184" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9318,29 +9301,29 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B185" t="s">
+        <v>542</v>
+      </c>
+      <c r="D185" t="s">
+        <v>543</v>
+      </c>
+      <c r="E185" t="s">
+        <v>544</v>
+      </c>
+      <c r="F185" t="s">
         <v>545</v>
       </c>
-      <c r="D185" t="s">
-        <v>546</v>
-      </c>
-      <c r="E185" t="s">
-        <v>547</v>
-      </c>
-      <c r="F185" t="s">
-        <v>548</v>
-      </c>
       <c r="G185" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H185" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_CNTR_STOP</v>
       </c>
       <c r="I185" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J185" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9349,29 +9332,29 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B186" t="s">
+        <v>546</v>
+      </c>
+      <c r="D186" t="s">
+        <v>547</v>
+      </c>
+      <c r="E186" t="s">
+        <v>548</v>
+      </c>
+      <c r="F186" t="s">
         <v>549</v>
       </c>
-      <c r="D186" t="s">
-        <v>550</v>
-      </c>
-      <c r="E186" t="s">
-        <v>551</v>
-      </c>
-      <c r="F186" t="s">
-        <v>552</v>
-      </c>
       <c r="G186" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H186" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_SILENCE_PB</v>
       </c>
       <c r="I186" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J186" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9380,32 +9363,32 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B187" t="s">
+        <v>550</v>
+      </c>
+      <c r="C187" t="s">
+        <v>551</v>
+      </c>
+      <c r="D187" t="s">
+        <v>552</v>
+      </c>
+      <c r="E187" t="s">
         <v>553</v>
       </c>
-      <c r="C187" t="s">
+      <c r="F187" t="s">
         <v>554</v>
       </c>
-      <c r="D187" t="s">
-        <v>555</v>
-      </c>
-      <c r="E187" t="s">
-        <v>556</v>
-      </c>
-      <c r="F187" t="s">
-        <v>557</v>
-      </c>
       <c r="G187" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H187" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_STOP_BELT</v>
       </c>
       <c r="I187" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J187" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9414,29 +9397,29 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B188" t="s">
+        <v>555</v>
+      </c>
+      <c r="D188" t="s">
+        <v>556</v>
+      </c>
+      <c r="E188" t="s">
+        <v>557</v>
+      </c>
+      <c r="F188" t="s">
         <v>558</v>
       </c>
-      <c r="D188" t="s">
-        <v>559</v>
-      </c>
-      <c r="E188" t="s">
-        <v>560</v>
-      </c>
-      <c r="F188" t="s">
-        <v>561</v>
-      </c>
       <c r="G188" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H188" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_CNTR_STOP_PB</v>
       </c>
       <c r="I188" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J188" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9445,29 +9428,29 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B189" t="s">
+        <v>559</v>
+      </c>
+      <c r="D189" t="s">
+        <v>560</v>
+      </c>
+      <c r="E189" t="s">
+        <v>561</v>
+      </c>
+      <c r="F189" t="s">
         <v>562</v>
       </c>
-      <c r="D189" t="s">
-        <v>563</v>
-      </c>
-      <c r="E189" t="s">
-        <v>564</v>
-      </c>
-      <c r="F189" t="s">
-        <v>565</v>
-      </c>
       <c r="G189" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H189" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_SILENCE</v>
       </c>
       <c r="I189" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J189" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9476,29 +9459,29 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B190" t="s">
+        <v>563</v>
+      </c>
+      <c r="D190" t="s">
+        <v>564</v>
+      </c>
+      <c r="E190" t="s">
+        <v>565</v>
+      </c>
+      <c r="F190" t="s">
         <v>566</v>
       </c>
-      <c r="D190" t="s">
-        <v>567</v>
-      </c>
-      <c r="E190" t="s">
-        <v>568</v>
-      </c>
-      <c r="F190" t="s">
-        <v>569</v>
-      </c>
       <c r="G190" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H190" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_CNTR_RESET_PB</v>
       </c>
       <c r="I190" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J190" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9507,29 +9490,29 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B191" t="s">
+        <v>567</v>
+      </c>
+      <c r="D191" t="s">
+        <v>568</v>
+      </c>
+      <c r="E191" t="s">
+        <v>569</v>
+      </c>
+      <c r="F191" t="s">
         <v>570</v>
       </c>
-      <c r="D191" t="s">
-        <v>571</v>
-      </c>
-      <c r="E191" t="s">
-        <v>572</v>
-      </c>
-      <c r="F191" t="s">
-        <v>573</v>
-      </c>
       <c r="G191" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H191" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_BYPASS_MODE</v>
       </c>
       <c r="I191" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J191" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9538,29 +9521,29 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B192" t="s">
+        <v>571</v>
+      </c>
+      <c r="D192" t="s">
+        <v>572</v>
+      </c>
+      <c r="E192" t="s">
+        <v>573</v>
+      </c>
+      <c r="F192" t="s">
         <v>574</v>
       </c>
-      <c r="D192" t="s">
-        <v>575</v>
-      </c>
-      <c r="E192" t="s">
-        <v>576</v>
-      </c>
-      <c r="F192" t="s">
-        <v>577</v>
-      </c>
       <c r="G192" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H192" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_INTAKE_BOTTOM_CLOSED</v>
       </c>
       <c r="I192" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J192" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9569,29 +9552,29 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B193" t="s">
+        <v>575</v>
+      </c>
+      <c r="D193" t="s">
+        <v>576</v>
+      </c>
+      <c r="E193" t="s">
+        <v>577</v>
+      </c>
+      <c r="F193" t="s">
         <v>578</v>
       </c>
-      <c r="D193" t="s">
-        <v>579</v>
-      </c>
-      <c r="E193" t="s">
-        <v>580</v>
-      </c>
-      <c r="F193" t="s">
-        <v>581</v>
-      </c>
       <c r="G193" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H193" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_INTAKE_MIDDLE_CLOSED</v>
       </c>
       <c r="I193" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J193" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9600,29 +9583,29 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
+        <v>579</v>
+      </c>
+      <c r="D194" t="s">
+        <v>580</v>
+      </c>
+      <c r="E194" t="s">
+        <v>581</v>
+      </c>
+      <c r="F194" t="s">
         <v>582</v>
       </c>
-      <c r="D194" t="s">
-        <v>583</v>
-      </c>
-      <c r="E194" t="s">
-        <v>584</v>
-      </c>
-      <c r="F194" t="s">
-        <v>585</v>
-      </c>
       <c r="G194" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H194" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_ZONE2_EXHAUST_FEEDBACK</v>
       </c>
       <c r="I194" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J194" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9631,29 +9614,29 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B195" t="s">
+        <v>583</v>
+      </c>
+      <c r="D195" t="s">
+        <v>584</v>
+      </c>
+      <c r="E195" t="s">
+        <v>585</v>
+      </c>
+      <c r="F195" t="s">
         <v>586</v>
       </c>
-      <c r="D195" t="s">
-        <v>587</v>
-      </c>
-      <c r="E195" t="s">
-        <v>588</v>
-      </c>
-      <c r="F195" t="s">
-        <v>589</v>
-      </c>
       <c r="G195" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H195" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_ZONE2_REC_FEEDBACK</v>
       </c>
       <c r="I195" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J195" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9662,29 +9645,29 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B196" t="s">
+        <v>587</v>
+      </c>
+      <c r="D196" t="s">
+        <v>588</v>
+      </c>
+      <c r="E196" t="s">
+        <v>589</v>
+      </c>
+      <c r="F196" t="s">
         <v>590</v>
       </c>
-      <c r="D196" t="s">
-        <v>591</v>
-      </c>
-      <c r="E196" t="s">
-        <v>592</v>
-      </c>
-      <c r="F196" t="s">
-        <v>593</v>
-      </c>
       <c r="G196" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H196" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_ZONE4_EXHAUST_FEEDBACK</v>
       </c>
       <c r="I196" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J196" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9693,29 +9676,29 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
+        <v>591</v>
+      </c>
+      <c r="D197" t="s">
+        <v>592</v>
+      </c>
+      <c r="E197" t="s">
+        <v>593</v>
+      </c>
+      <c r="F197" t="s">
         <v>594</v>
       </c>
-      <c r="D197" t="s">
-        <v>595</v>
-      </c>
-      <c r="E197" t="s">
-        <v>596</v>
-      </c>
-      <c r="F197" t="s">
-        <v>597</v>
-      </c>
       <c r="G197" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H197" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_ZONE4_REC_FEEDBACK</v>
       </c>
       <c r="I197" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J197" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9724,26 +9707,26 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B198" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E198" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F198" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G198" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H198" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-1_PID_LOOP_STATUS_DO</v>
       </c>
       <c r="I198" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J198" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9752,26 +9735,26 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B199" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E199" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H199" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-2_PID_LOOP_STATUS_DO</v>
       </c>
       <c r="I199" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J199" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9780,26 +9763,26 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>595</v>
+      </c>
+      <c r="B200" t="s">
         <v>598</v>
       </c>
-      <c r="B200" t="s">
-        <v>601</v>
-      </c>
       <c r="E200" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F200" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G200" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H200" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_S_PID_LOOP_STATUS_DO</v>
       </c>
       <c r="I200" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9808,26 +9791,26 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B201" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E201" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F201" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G201" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H201" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_W_PID_LOOP_STATUS_DO</v>
       </c>
       <c r="I201" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9836,26 +9819,26 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B202" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E202" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F202" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G202" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H202" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-5_PID_LOOP_STATUS</v>
       </c>
       <c r="I202" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J202" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9864,26 +9847,26 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B203" t="s">
+        <v>601</v>
+      </c>
+      <c r="E203" t="s">
+        <v>602</v>
+      </c>
+      <c r="F203" t="s">
+        <v>603</v>
+      </c>
+      <c r="G203" t="s">
+        <v>603</v>
+      </c>
+      <c r="H203" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-11_CLOSE</v>
+      </c>
+      <c r="I203" t="s">
         <v>604</v>
-      </c>
-      <c r="E203" t="s">
-        <v>605</v>
-      </c>
-      <c r="F203" t="s">
-        <v>606</v>
-      </c>
-      <c r="G203" t="s">
-        <v>606</v>
-      </c>
-      <c r="H203" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-11_CLOSE</v>
-      </c>
-      <c r="I203" t="s">
-        <v>607</v>
       </c>
       <c r="J203" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9892,26 +9875,26 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B204" t="s">
+        <v>605</v>
+      </c>
+      <c r="E204" t="s">
+        <v>606</v>
+      </c>
+      <c r="F204" t="s">
+        <v>607</v>
+      </c>
+      <c r="G204" t="s">
+        <v>607</v>
+      </c>
+      <c r="H204" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-11_OPEN</v>
+      </c>
+      <c r="I204" t="s">
         <v>608</v>
-      </c>
-      <c r="E204" t="s">
-        <v>609</v>
-      </c>
-      <c r="F204" t="s">
-        <v>610</v>
-      </c>
-      <c r="G204" t="s">
-        <v>610</v>
-      </c>
-      <c r="H204" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-11_OPEN</v>
-      </c>
-      <c r="I204" t="s">
-        <v>611</v>
       </c>
       <c r="J204" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9920,26 +9903,26 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B205" t="s">
+        <v>609</v>
+      </c>
+      <c r="E205" t="s">
+        <v>610</v>
+      </c>
+      <c r="F205" t="s">
+        <v>611</v>
+      </c>
+      <c r="G205" t="s">
+        <v>611</v>
+      </c>
+      <c r="H205" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-12_CLOSE</v>
+      </c>
+      <c r="I205" t="s">
         <v>612</v>
-      </c>
-      <c r="E205" t="s">
-        <v>613</v>
-      </c>
-      <c r="F205" t="s">
-        <v>614</v>
-      </c>
-      <c r="G205" t="s">
-        <v>614</v>
-      </c>
-      <c r="H205" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-12_CLOSE</v>
-      </c>
-      <c r="I205" t="s">
-        <v>615</v>
       </c>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9948,26 +9931,26 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B206" t="s">
+        <v>613</v>
+      </c>
+      <c r="E206" t="s">
+        <v>614</v>
+      </c>
+      <c r="F206" t="s">
+        <v>615</v>
+      </c>
+      <c r="G206" t="s">
+        <v>615</v>
+      </c>
+      <c r="H206" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-12_OPEN</v>
+      </c>
+      <c r="I206" t="s">
         <v>616</v>
-      </c>
-      <c r="E206" t="s">
-        <v>617</v>
-      </c>
-      <c r="F206" t="s">
-        <v>618</v>
-      </c>
-      <c r="G206" t="s">
-        <v>618</v>
-      </c>
-      <c r="H206" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-12_OPEN</v>
-      </c>
-      <c r="I206" t="s">
-        <v>619</v>
       </c>
       <c r="J206" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -9976,26 +9959,26 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B207" t="s">
+        <v>617</v>
+      </c>
+      <c r="E207" t="s">
+        <v>618</v>
+      </c>
+      <c r="F207" t="s">
+        <v>619</v>
+      </c>
+      <c r="G207" t="s">
+        <v>619</v>
+      </c>
+      <c r="H207" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-13_CLOSE</v>
+      </c>
+      <c r="I207" t="s">
         <v>620</v>
-      </c>
-      <c r="E207" t="s">
-        <v>621</v>
-      </c>
-      <c r="F207" t="s">
-        <v>622</v>
-      </c>
-      <c r="G207" t="s">
-        <v>622</v>
-      </c>
-      <c r="H207" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-13_CLOSE</v>
-      </c>
-      <c r="I207" t="s">
-        <v>623</v>
       </c>
       <c r="J207" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10004,26 +9987,26 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B208" t="s">
+        <v>621</v>
+      </c>
+      <c r="E208" t="s">
+        <v>622</v>
+      </c>
+      <c r="F208" t="s">
+        <v>623</v>
+      </c>
+      <c r="G208" t="s">
+        <v>623</v>
+      </c>
+      <c r="H208" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_AV51-13_OPEN</v>
+      </c>
+      <c r="I208" t="s">
         <v>624</v>
-      </c>
-      <c r="E208" t="s">
-        <v>625</v>
-      </c>
-      <c r="F208" t="s">
-        <v>626</v>
-      </c>
-      <c r="G208" t="s">
-        <v>626</v>
-      </c>
-      <c r="H208" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_AV51-13_OPEN</v>
-      </c>
-      <c r="I208" t="s">
-        <v>627</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10032,26 +10015,26 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B209" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E209" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F209" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G209" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H209" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-12_PID_LOOP_STATUS_DO</v>
       </c>
       <c r="I209" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10060,29 +10043,29 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B210" t="s">
+        <v>626</v>
+      </c>
+      <c r="D210" t="s">
+        <v>627</v>
+      </c>
+      <c r="E210" t="s">
+        <v>628</v>
+      </c>
+      <c r="F210" t="s">
         <v>629</v>
       </c>
-      <c r="D210" t="s">
-        <v>630</v>
-      </c>
-      <c r="E210" t="s">
-        <v>631</v>
-      </c>
-      <c r="F210" t="s">
-        <v>632</v>
-      </c>
       <c r="G210" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H210" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHEM_OSCILLATING_DRIER</v>
       </c>
       <c r="I210" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10091,29 +10074,29 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B211" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D211" t="s">
+        <v>627</v>
+      </c>
+      <c r="E211" t="s">
+        <v>631</v>
+      </c>
+      <c r="F211" t="s">
+        <v>632</v>
+      </c>
+      <c r="G211" t="s">
+        <v>632</v>
+      </c>
+      <c r="H211" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHEM_PARK_POS_DRIER</v>
+      </c>
+      <c r="I211" t="s">
         <v>630</v>
-      </c>
-      <c r="E211" t="s">
-        <v>634</v>
-      </c>
-      <c r="F211" t="s">
-        <v>635</v>
-      </c>
-      <c r="G211" t="s">
-        <v>635</v>
-      </c>
-      <c r="H211" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHEM_PARK_POS_DRIER</v>
-      </c>
-      <c r="I211" t="s">
-        <v>633</v>
       </c>
       <c r="J211" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10122,29 +10105,29 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B212" t="s">
+        <v>633</v>
+      </c>
+      <c r="D212" t="s">
+        <v>634</v>
+      </c>
+      <c r="E212" t="s">
+        <v>635</v>
+      </c>
+      <c r="F212" t="s">
         <v>636</v>
       </c>
-      <c r="D212" t="s">
-        <v>637</v>
-      </c>
-      <c r="E212" t="s">
-        <v>638</v>
-      </c>
-      <c r="F212" t="s">
-        <v>639</v>
-      </c>
       <c r="G212" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H212" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_12EF2_ZH_DO</v>
       </c>
       <c r="I212" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J212" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10153,29 +10136,29 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B213" t="s">
+        <v>637</v>
+      </c>
+      <c r="D213" t="s">
+        <v>638</v>
+      </c>
+      <c r="E213" t="s">
+        <v>639</v>
+      </c>
+      <c r="F213" t="s">
         <v>640</v>
       </c>
-      <c r="D213" t="s">
-        <v>641</v>
-      </c>
-      <c r="E213" t="s">
-        <v>642</v>
-      </c>
-      <c r="F213" t="s">
-        <v>643</v>
-      </c>
       <c r="G213" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H213" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_12EF2_ZC_DO</v>
       </c>
       <c r="I213" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J213" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10184,26 +10167,26 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B214" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E214" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F214" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G214" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H214" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_SPIKE_ALARM_ACK_DO</v>
       </c>
       <c r="I214" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J214" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10212,29 +10195,29 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B215" t="s">
+        <v>644</v>
+      </c>
+      <c r="D215" t="s">
+        <v>645</v>
+      </c>
+      <c r="E215" t="s">
+        <v>646</v>
+      </c>
+      <c r="F215" t="s">
         <v>647</v>
       </c>
-      <c r="D215" t="s">
-        <v>648</v>
-      </c>
-      <c r="E215" t="s">
-        <v>649</v>
-      </c>
-      <c r="F215" t="s">
-        <v>650</v>
-      </c>
       <c r="G215" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H215" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRI_LOCAL_ALARM_DO</v>
       </c>
       <c r="I215" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J215" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10243,29 +10226,29 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B216" t="s">
+        <v>648</v>
+      </c>
+      <c r="D216" t="s">
+        <v>649</v>
+      </c>
+      <c r="E216" t="s">
+        <v>650</v>
+      </c>
+      <c r="F216" t="s">
         <v>651</v>
       </c>
-      <c r="D216" t="s">
-        <v>652</v>
-      </c>
-      <c r="E216" t="s">
-        <v>653</v>
-      </c>
-      <c r="F216" t="s">
-        <v>654</v>
-      </c>
       <c r="G216" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H216" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRI_LOCAL_ALM_LOCKOUT_DO</v>
       </c>
       <c r="I216" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10274,29 +10257,29 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B217" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C217" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E217" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F217" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G217" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H217" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_W_PID_OUTPUT</v>
       </c>
       <c r="I217" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10305,29 +10288,29 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>652</v>
+      </c>
+      <c r="B218" t="s">
         <v>655</v>
       </c>
-      <c r="B218" t="s">
-        <v>658</v>
-      </c>
       <c r="C218" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E218" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F218" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G218" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H218" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-3_S_PID_OUTPUT</v>
       </c>
       <c r="I218" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J218" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10336,10 +10319,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B219" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E219" t="s">
         <v>61</v>
@@ -10364,32 +10347,32 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B220" t="s">
+        <v>658</v>
+      </c>
+      <c r="C220" t="s">
+        <v>659</v>
+      </c>
+      <c r="D220" t="s">
+        <v>660</v>
+      </c>
+      <c r="E220" t="s">
         <v>661</v>
       </c>
-      <c r="C220" t="s">
+      <c r="F220" t="s">
         <v>662</v>
       </c>
-      <c r="D220" t="s">
+      <c r="G220" t="s">
+        <v>662</v>
+      </c>
+      <c r="H220" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_SCADA_SCALED</v>
+      </c>
+      <c r="I220" t="s">
         <v>663</v>
-      </c>
-      <c r="E220" t="s">
-        <v>664</v>
-      </c>
-      <c r="F220" t="s">
-        <v>665</v>
-      </c>
-      <c r="G220" t="s">
-        <v>665</v>
-      </c>
-      <c r="H220" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_SCADA_SCALED</v>
-      </c>
-      <c r="I220" t="s">
-        <v>666</v>
       </c>
       <c r="J220" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10398,32 +10381,32 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B221" t="s">
+        <v>664</v>
+      </c>
+      <c r="C221" t="s">
+        <v>665</v>
+      </c>
+      <c r="D221" t="s">
+        <v>666</v>
+      </c>
+      <c r="E221" t="s">
         <v>667</v>
       </c>
-      <c r="C221" t="s">
+      <c r="F221" t="s">
         <v>668</v>
       </c>
-      <c r="D221" t="s">
+      <c r="G221" t="s">
+        <v>668</v>
+      </c>
+      <c r="H221" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-4_SCADA_SCALED</v>
+      </c>
+      <c r="I221" t="s">
         <v>669</v>
-      </c>
-      <c r="E221" t="s">
-        <v>670</v>
-      </c>
-      <c r="F221" t="s">
-        <v>671</v>
-      </c>
-      <c r="G221" t="s">
-        <v>671</v>
-      </c>
-      <c r="H221" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-4_SCADA_SCALED</v>
-      </c>
-      <c r="I221" t="s">
-        <v>672</v>
       </c>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10432,32 +10415,32 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B222" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C222" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D222" t="s">
+        <v>660</v>
+      </c>
+      <c r="E222" t="s">
+        <v>661</v>
+      </c>
+      <c r="F222" t="s">
+        <v>662</v>
+      </c>
+      <c r="G222" t="s">
+        <v>662</v>
+      </c>
+      <c r="H222" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-3_RAW</v>
+      </c>
+      <c r="I222" t="s">
         <v>663</v>
-      </c>
-      <c r="E222" t="s">
-        <v>664</v>
-      </c>
-      <c r="F222" t="s">
-        <v>665</v>
-      </c>
-      <c r="G222" t="s">
-        <v>665</v>
-      </c>
-      <c r="H222" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-3_RAW</v>
-      </c>
-      <c r="I222" t="s">
-        <v>666</v>
       </c>
       <c r="J222" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10466,10 +10449,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B223" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E223" t="s">
         <v>56</v>
@@ -10494,29 +10477,29 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B224" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C224" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E224" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F224" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G224" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H224" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-5_PID_OUTPUT</v>
       </c>
       <c r="I224" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10525,32 +10508,32 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B225" t="s">
+        <v>675</v>
+      </c>
+      <c r="C225" t="s">
+        <v>676</v>
+      </c>
+      <c r="D225" t="s">
+        <v>677</v>
+      </c>
+      <c r="E225" t="s">
         <v>678</v>
       </c>
-      <c r="C225" t="s">
+      <c r="F225" t="s">
         <v>679</v>
       </c>
-      <c r="D225" t="s">
+      <c r="G225" t="s">
         <v>680</v>
       </c>
-      <c r="E225" t="s">
+      <c r="H225" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-5_PV_TO_BURNER_AA</v>
+      </c>
+      <c r="I225" t="s">
         <v>681</v>
-      </c>
-      <c r="F225" t="s">
-        <v>682</v>
-      </c>
-      <c r="G225" t="s">
-        <v>683</v>
-      </c>
-      <c r="H225" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-5_PV_TO_BURNER_AA</v>
-      </c>
-      <c r="I225" t="s">
-        <v>684</v>
       </c>
       <c r="J225" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10559,32 +10542,32 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B226" t="s">
+        <v>682</v>
+      </c>
+      <c r="C226" t="s">
+        <v>683</v>
+      </c>
+      <c r="D226" t="s">
+        <v>677</v>
+      </c>
+      <c r="E226" t="s">
+        <v>684</v>
+      </c>
+      <c r="F226" t="s">
         <v>685</v>
       </c>
-      <c r="C226" t="s">
+      <c r="G226" t="s">
+        <v>685</v>
+      </c>
+      <c r="H226" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-5_RAW</v>
+      </c>
+      <c r="I226" t="s">
         <v>686</v>
-      </c>
-      <c r="D226" t="s">
-        <v>680</v>
-      </c>
-      <c r="E226" t="s">
-        <v>687</v>
-      </c>
-      <c r="F226" t="s">
-        <v>688</v>
-      </c>
-      <c r="G226" t="s">
-        <v>688</v>
-      </c>
-      <c r="H226" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-5_RAW</v>
-      </c>
-      <c r="I226" t="s">
-        <v>689</v>
       </c>
       <c r="J226" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10593,29 +10576,29 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B227" t="s">
+        <v>687</v>
+      </c>
+      <c r="D227" t="s">
+        <v>688</v>
+      </c>
+      <c r="E227" t="s">
+        <v>689</v>
+      </c>
+      <c r="F227" t="s">
         <v>690</v>
       </c>
-      <c r="D227" t="s">
+      <c r="G227" t="s">
         <v>691</v>
       </c>
-      <c r="E227" t="s">
-        <v>692</v>
-      </c>
-      <c r="F227" t="s">
-        <v>693</v>
-      </c>
-      <c r="G227" t="s">
-        <v>694</v>
-      </c>
       <c r="H227" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_MAIN_FAN_AMPS</v>
       </c>
       <c r="I227" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J227" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10624,29 +10607,29 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B228" t="s">
+        <v>692</v>
+      </c>
+      <c r="D228" t="s">
+        <v>693</v>
+      </c>
+      <c r="E228" t="s">
+        <v>694</v>
+      </c>
+      <c r="F228" t="s">
         <v>695</v>
       </c>
-      <c r="D228" t="s">
+      <c r="G228" t="s">
         <v>696</v>
       </c>
-      <c r="E228" t="s">
-        <v>697</v>
-      </c>
-      <c r="F228" t="s">
-        <v>698</v>
-      </c>
-      <c r="G228" t="s">
-        <v>699</v>
-      </c>
       <c r="H228" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_REGEN_FAN_AMPS</v>
       </c>
       <c r="I228" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10655,10 +10638,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B229" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E229" t="s">
         <v>222</v>
@@ -10683,32 +10666,32 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B230" t="s">
+        <v>698</v>
+      </c>
+      <c r="C230" t="s">
+        <v>699</v>
+      </c>
+      <c r="D230" t="s">
+        <v>700</v>
+      </c>
+      <c r="E230" t="s">
         <v>701</v>
       </c>
-      <c r="C230" t="s">
+      <c r="F230" t="s">
         <v>702</v>
       </c>
-      <c r="D230" t="s">
+      <c r="G230" t="s">
         <v>703</v>
       </c>
-      <c r="E230" t="s">
+      <c r="H230" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-6_SCADA_SCALED</v>
+      </c>
+      <c r="I230" t="s">
         <v>704</v>
-      </c>
-      <c r="F230" t="s">
-        <v>705</v>
-      </c>
-      <c r="G230" t="s">
-        <v>706</v>
-      </c>
-      <c r="H230" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-6_SCADA_SCALED</v>
-      </c>
-      <c r="I230" t="s">
-        <v>707</v>
       </c>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10717,29 +10700,29 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B231" t="s">
+        <v>705</v>
+      </c>
+      <c r="D231" t="s">
+        <v>706</v>
+      </c>
+      <c r="E231" t="s">
+        <v>707</v>
+      </c>
+      <c r="F231" t="s">
         <v>708</v>
       </c>
-      <c r="D231" t="s">
+      <c r="G231" t="s">
         <v>709</v>
       </c>
-      <c r="E231" t="s">
+      <c r="H231" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_IDH_T51-3_SETPOINT</v>
+      </c>
+      <c r="I231" t="s">
         <v>710</v>
-      </c>
-      <c r="F231" t="s">
-        <v>711</v>
-      </c>
-      <c r="G231" t="s">
-        <v>712</v>
-      </c>
-      <c r="H231" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_IDH_T51-3_SETPOINT</v>
-      </c>
-      <c r="I231" t="s">
-        <v>713</v>
       </c>
       <c r="J231" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10748,32 +10731,32 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B232" t="s">
+        <v>711</v>
+      </c>
+      <c r="C232" t="s">
+        <v>712</v>
+      </c>
+      <c r="D232" t="s">
+        <v>713</v>
+      </c>
+      <c r="E232" t="s">
         <v>714</v>
       </c>
-      <c r="C232" t="s">
+      <c r="F232" t="s">
         <v>715</v>
       </c>
-      <c r="D232" t="s">
+      <c r="G232" t="s">
+        <v>715</v>
+      </c>
+      <c r="H232" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_L52-51</v>
+      </c>
+      <c r="I232" t="s">
         <v>716</v>
-      </c>
-      <c r="E232" t="s">
-        <v>717</v>
-      </c>
-      <c r="F232" t="s">
-        <v>718</v>
-      </c>
-      <c r="G232" t="s">
-        <v>718</v>
-      </c>
-      <c r="H232" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_L52-51</v>
-      </c>
-      <c r="I232" t="s">
-        <v>719</v>
       </c>
       <c r="J232" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10782,29 +10765,29 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B233" t="s">
+        <v>717</v>
+      </c>
+      <c r="D233" t="s">
+        <v>718</v>
+      </c>
+      <c r="E233" t="s">
+        <v>719</v>
+      </c>
+      <c r="F233" t="s">
         <v>720</v>
       </c>
-      <c r="D233" t="s">
+      <c r="G233" t="s">
+        <v>720</v>
+      </c>
+      <c r="H233" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-10_ALARM</v>
+      </c>
+      <c r="I233" t="s">
         <v>721</v>
-      </c>
-      <c r="E233" t="s">
-        <v>722</v>
-      </c>
-      <c r="F233" t="s">
-        <v>723</v>
-      </c>
-      <c r="G233" t="s">
-        <v>723</v>
-      </c>
-      <c r="H233" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-10_ALARM</v>
-      </c>
-      <c r="I233" t="s">
-        <v>724</v>
       </c>
       <c r="J233" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10813,32 +10796,32 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B234" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C234" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D234" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E234" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F234" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G234" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H234" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-10_SCADA_SCALED</v>
       </c>
       <c r="I234" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10847,32 +10830,32 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B235" t="s">
+        <v>725</v>
+      </c>
+      <c r="C235" t="s">
+        <v>726</v>
+      </c>
+      <c r="D235" t="s">
+        <v>727</v>
+      </c>
+      <c r="E235" t="s">
         <v>728</v>
       </c>
-      <c r="C235" t="s">
+      <c r="F235" t="s">
         <v>729</v>
       </c>
-      <c r="D235" t="s">
+      <c r="G235" t="s">
+        <v>729</v>
+      </c>
+      <c r="H235" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-11_RAW</v>
+      </c>
+      <c r="I235" t="s">
         <v>730</v>
-      </c>
-      <c r="E235" t="s">
-        <v>731</v>
-      </c>
-      <c r="F235" t="s">
-        <v>732</v>
-      </c>
-      <c r="G235" t="s">
-        <v>732</v>
-      </c>
-      <c r="H235" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-11_RAW</v>
-      </c>
-      <c r="I235" t="s">
-        <v>733</v>
       </c>
       <c r="J235" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10881,22 +10864,22 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B236" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C236" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D236" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E236" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F236" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G236" t="s">
         <v>153</v>
@@ -10915,22 +10898,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B237" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C237" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D237" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E237" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F237" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G237" t="s">
         <v>153</v>
@@ -10949,32 +10932,32 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B238" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C238" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D238" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F238" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G238" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H238" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-11_SCADA_SCALED</v>
       </c>
       <c r="I238" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J238" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -10983,29 +10966,29 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B239" t="s">
+        <v>739</v>
+      </c>
+      <c r="D239" t="s">
+        <v>740</v>
+      </c>
+      <c r="E239" t="s">
+        <v>741</v>
+      </c>
+      <c r="F239" t="s">
         <v>742</v>
       </c>
-      <c r="D239" t="s">
+      <c r="G239" t="s">
+        <v>742</v>
+      </c>
+      <c r="H239" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_DRIER_FLOW_CIP_EAST</v>
+      </c>
+      <c r="I239" t="s">
         <v>743</v>
-      </c>
-      <c r="E239" t="s">
-        <v>744</v>
-      </c>
-      <c r="F239" t="s">
-        <v>745</v>
-      </c>
-      <c r="G239" t="s">
-        <v>745</v>
-      </c>
-      <c r="H239" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_DRIER_FLOW_CIP_EAST</v>
-      </c>
-      <c r="I239" t="s">
-        <v>746</v>
       </c>
       <c r="J239" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11014,29 +10997,29 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B240" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D240" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E240" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F240" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G240" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H240" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_4TH_EAST</v>
       </c>
       <c r="I240" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J240" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11045,10 +11028,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B241" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E241" t="s">
         <v>260</v>
@@ -11073,29 +11056,29 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B242" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D242" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E242" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F242" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G242" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H242" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_3RD_EAST</v>
       </c>
       <c r="I242" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J242" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11104,29 +11087,29 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B243" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D243" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E243" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F243" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G243" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H243" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_2ND_EAST</v>
       </c>
       <c r="I243" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J243" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11135,32 +11118,32 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B244" t="s">
+        <v>751</v>
+      </c>
+      <c r="C244" t="s">
+        <v>752</v>
+      </c>
+      <c r="D244" t="s">
+        <v>753</v>
+      </c>
+      <c r="E244" t="s">
         <v>754</v>
       </c>
-      <c r="C244" t="s">
+      <c r="F244" t="s">
         <v>755</v>
       </c>
-      <c r="D244" t="s">
+      <c r="G244" t="s">
+        <v>755</v>
+      </c>
+      <c r="H244" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-12_RAW</v>
+      </c>
+      <c r="I244" t="s">
         <v>756</v>
-      </c>
-      <c r="E244" t="s">
-        <v>757</v>
-      </c>
-      <c r="F244" t="s">
-        <v>758</v>
-      </c>
-      <c r="G244" t="s">
-        <v>758</v>
-      </c>
-      <c r="H244" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-12_RAW</v>
-      </c>
-      <c r="I244" t="s">
-        <v>759</v>
       </c>
       <c r="J244" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11169,29 +11152,29 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B245" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D245" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E245" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F245" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G245" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H245" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_1ST_EAST</v>
       </c>
       <c r="I245" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11200,29 +11183,29 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B246" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D246" t="s">
+        <v>753</v>
+      </c>
+      <c r="E246" t="s">
+        <v>754</v>
+      </c>
+      <c r="F246" t="s">
+        <v>755</v>
+      </c>
+      <c r="G246" t="s">
+        <v>755</v>
+      </c>
+      <c r="H246" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-12_RAW_SCADA_SCALING</v>
+      </c>
+      <c r="I246" t="s">
         <v>756</v>
-      </c>
-      <c r="E246" t="s">
-        <v>757</v>
-      </c>
-      <c r="F246" t="s">
-        <v>758</v>
-      </c>
-      <c r="G246" t="s">
-        <v>758</v>
-      </c>
-      <c r="H246" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-12_RAW_SCADA_SCALING</v>
-      </c>
-      <c r="I246" t="s">
-        <v>759</v>
       </c>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11231,32 +11214,32 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B247" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C247" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D247" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E247" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F247" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G247" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H247" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_EAST_FLOW_REP1</v>
       </c>
       <c r="I247" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11265,32 +11248,32 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B248" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C248" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D248" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E248" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F248" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G248" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H248" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_EAST_FLOW_REP</v>
       </c>
       <c r="I248" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J248" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11299,29 +11282,29 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B249" t="s">
+        <v>765</v>
+      </c>
+      <c r="D249" t="s">
+        <v>766</v>
+      </c>
+      <c r="E249" t="s">
+        <v>767</v>
+      </c>
+      <c r="F249" t="s">
         <v>768</v>
       </c>
-      <c r="D249" t="s">
+      <c r="G249" t="s">
+        <v>768</v>
+      </c>
+      <c r="H249" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_DRIER_DRY_FLOW_FINE_GRIND_AA</v>
+      </c>
+      <c r="I249" t="s">
         <v>769</v>
-      </c>
-      <c r="E249" t="s">
-        <v>770</v>
-      </c>
-      <c r="F249" t="s">
-        <v>771</v>
-      </c>
-      <c r="G249" t="s">
-        <v>771</v>
-      </c>
-      <c r="H249" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_DRIER_DRY_FLOW_FINE_GRIND_AA</v>
-      </c>
-      <c r="I249" t="s">
-        <v>772</v>
       </c>
       <c r="J249" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11330,32 +11313,32 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B250" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C250" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D250" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E250" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F250" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G250" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H250" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_DRY_FLOW_FINE_GRIND</v>
       </c>
       <c r="I250" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J250" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11364,32 +11347,32 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B251" t="s">
+        <v>772</v>
+      </c>
+      <c r="C251" t="s">
+        <v>773</v>
+      </c>
+      <c r="D251" t="s">
+        <v>774</v>
+      </c>
+      <c r="E251" t="s">
         <v>775</v>
       </c>
-      <c r="C251" t="s">
+      <c r="F251" t="s">
         <v>776</v>
       </c>
-      <c r="D251" t="s">
-        <v>777</v>
-      </c>
-      <c r="E251" t="s">
-        <v>778</v>
-      </c>
-      <c r="F251" t="s">
-        <v>779</v>
-      </c>
       <c r="G251" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H251" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_DRY_FLOW_EAST</v>
       </c>
       <c r="I251" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J251" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11398,29 +11381,29 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B252" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D252" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E252" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F252" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G252" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H252" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_DRY_FLOW_COMIL</v>
       </c>
       <c r="I252" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J252" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11429,32 +11412,32 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B253" t="s">
+        <v>779</v>
+      </c>
+      <c r="C253" t="s">
+        <v>780</v>
+      </c>
+      <c r="D253" t="s">
+        <v>781</v>
+      </c>
+      <c r="E253" t="s">
         <v>782</v>
       </c>
-      <c r="C253" t="s">
+      <c r="F253" t="s">
         <v>783</v>
       </c>
-      <c r="D253" t="s">
+      <c r="G253" t="s">
+        <v>783</v>
+      </c>
+      <c r="H253" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T52-48_RAW</v>
+      </c>
+      <c r="I253" t="s">
         <v>784</v>
-      </c>
-      <c r="E253" t="s">
-        <v>785</v>
-      </c>
-      <c r="F253" t="s">
-        <v>786</v>
-      </c>
-      <c r="G253" t="s">
-        <v>786</v>
-      </c>
-      <c r="H253" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T52-48_RAW</v>
-      </c>
-      <c r="I253" t="s">
-        <v>787</v>
       </c>
       <c r="J253" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11463,32 +11446,32 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B254" t="s">
+        <v>785</v>
+      </c>
+      <c r="C254" t="s">
+        <v>786</v>
+      </c>
+      <c r="D254" t="s">
+        <v>787</v>
+      </c>
+      <c r="E254" t="s">
         <v>788</v>
       </c>
-      <c r="C254" t="s">
+      <c r="F254" t="s">
         <v>789</v>
       </c>
-      <c r="D254" t="s">
+      <c r="G254" t="s">
+        <v>789</v>
+      </c>
+      <c r="H254" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T52-49_RAW</v>
+      </c>
+      <c r="I254" t="s">
         <v>790</v>
-      </c>
-      <c r="E254" t="s">
-        <v>791</v>
-      </c>
-      <c r="F254" t="s">
-        <v>792</v>
-      </c>
-      <c r="G254" t="s">
-        <v>792</v>
-      </c>
-      <c r="H254" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T52-49_RAW</v>
-      </c>
-      <c r="I254" t="s">
-        <v>793</v>
       </c>
       <c r="J254" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11497,32 +11480,32 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B255" t="s">
+        <v>791</v>
+      </c>
+      <c r="C255" t="s">
+        <v>792</v>
+      </c>
+      <c r="D255" t="s">
+        <v>793</v>
+      </c>
+      <c r="E255" t="s">
         <v>794</v>
       </c>
-      <c r="C255" t="s">
+      <c r="F255" t="s">
         <v>795</v>
       </c>
-      <c r="D255" t="s">
+      <c r="G255" t="s">
+        <v>795</v>
+      </c>
+      <c r="H255" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T52-50_RAW</v>
+      </c>
+      <c r="I255" t="s">
         <v>796</v>
-      </c>
-      <c r="E255" t="s">
-        <v>797</v>
-      </c>
-      <c r="F255" t="s">
-        <v>798</v>
-      </c>
-      <c r="G255" t="s">
-        <v>798</v>
-      </c>
-      <c r="H255" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T52-50_RAW</v>
-      </c>
-      <c r="I255" t="s">
-        <v>799</v>
       </c>
       <c r="J255" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11531,32 +11514,32 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B256" t="s">
+        <v>797</v>
+      </c>
+      <c r="C256" t="s">
+        <v>798</v>
+      </c>
+      <c r="D256" t="s">
+        <v>799</v>
+      </c>
+      <c r="E256" t="s">
         <v>800</v>
       </c>
-      <c r="C256" t="s">
+      <c r="F256" t="s">
         <v>801</v>
       </c>
-      <c r="D256" t="s">
+      <c r="G256" t="s">
         <v>802</v>
       </c>
-      <c r="E256" t="s">
+      <c r="H256" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-2_SCADA_SCALED</v>
+      </c>
+      <c r="I256" t="s">
         <v>803</v>
-      </c>
-      <c r="F256" t="s">
-        <v>804</v>
-      </c>
-      <c r="G256" t="s">
-        <v>805</v>
-      </c>
-      <c r="H256" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-2_SCADA_SCALED</v>
-      </c>
-      <c r="I256" t="s">
-        <v>806</v>
       </c>
       <c r="J256" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11565,32 +11548,32 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B257" t="s">
+        <v>804</v>
+      </c>
+      <c r="C257" t="s">
+        <v>805</v>
+      </c>
+      <c r="D257" t="s">
+        <v>806</v>
+      </c>
+      <c r="E257" t="s">
         <v>807</v>
       </c>
-      <c r="C257" t="s">
+      <c r="F257" t="s">
         <v>808</v>
       </c>
-      <c r="D257" t="s">
+      <c r="G257" t="s">
+        <v>808</v>
+      </c>
+      <c r="H257" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_RH51-1_RAW</v>
+      </c>
+      <c r="I257" t="s">
         <v>809</v>
-      </c>
-      <c r="E257" t="s">
-        <v>810</v>
-      </c>
-      <c r="F257" t="s">
-        <v>811</v>
-      </c>
-      <c r="G257" t="s">
-        <v>811</v>
-      </c>
-      <c r="H257" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_RH51-1_RAW</v>
-      </c>
-      <c r="I257" t="s">
-        <v>812</v>
       </c>
       <c r="J257" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11599,32 +11582,32 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B258" t="s">
+        <v>810</v>
+      </c>
+      <c r="C258" t="s">
+        <v>811</v>
+      </c>
+      <c r="D258" t="s">
+        <v>812</v>
+      </c>
+      <c r="E258" t="s">
         <v>813</v>
       </c>
-      <c r="C258" t="s">
+      <c r="F258" t="s">
         <v>814</v>
       </c>
-      <c r="D258" t="s">
+      <c r="G258" t="s">
+        <v>814</v>
+      </c>
+      <c r="H258" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CFM_51-1</v>
+      </c>
+      <c r="I258" t="s">
         <v>815</v>
-      </c>
-      <c r="E258" t="s">
-        <v>816</v>
-      </c>
-      <c r="F258" t="s">
-        <v>817</v>
-      </c>
-      <c r="G258" t="s">
-        <v>817</v>
-      </c>
-      <c r="H258" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CFM_51-1</v>
-      </c>
-      <c r="I258" t="s">
-        <v>818</v>
       </c>
       <c r="J258" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11633,29 +11616,29 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B259" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C259" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E259" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F259" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G259" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H259" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-2_PID_OUTPUT</v>
       </c>
       <c r="I259" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J259" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11664,10 +11647,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B260" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E260" t="s">
         <v>31</v>
@@ -11692,32 +11675,32 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B261" t="s">
+        <v>819</v>
+      </c>
+      <c r="C261" t="s">
+        <v>820</v>
+      </c>
+      <c r="D261" t="s">
+        <v>821</v>
+      </c>
+      <c r="E261" t="s">
         <v>822</v>
       </c>
-      <c r="C261" t="s">
+      <c r="F261" t="s">
         <v>823</v>
       </c>
-      <c r="D261" t="s">
+      <c r="G261" t="s">
         <v>824</v>
       </c>
-      <c r="E261" t="s">
+      <c r="H261" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_T51-1_SCADA_SCALED</v>
+      </c>
+      <c r="I261" t="s">
         <v>825</v>
-      </c>
-      <c r="F261" t="s">
-        <v>826</v>
-      </c>
-      <c r="G261" t="s">
-        <v>827</v>
-      </c>
-      <c r="H261" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_T51-1_SCADA_SCALED</v>
-      </c>
-      <c r="I261" t="s">
-        <v>828</v>
       </c>
       <c r="J261" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11726,29 +11709,29 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B262" t="s">
+        <v>826</v>
+      </c>
+      <c r="D262" t="s">
+        <v>827</v>
+      </c>
+      <c r="E262" t="s">
+        <v>828</v>
+      </c>
+      <c r="F262" t="s">
         <v>829</v>
       </c>
-      <c r="D262" t="s">
-        <v>830</v>
-      </c>
-      <c r="E262" t="s">
-        <v>831</v>
-      </c>
-      <c r="F262" t="s">
-        <v>832</v>
-      </c>
       <c r="G262" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H262" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHEM_TEST_FLOW_AVG_1</v>
       </c>
       <c r="I262" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="J262" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11757,29 +11740,29 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B263" t="s">
+        <v>830</v>
+      </c>
+      <c r="D263" t="s">
+        <v>831</v>
+      </c>
+      <c r="E263" t="s">
+        <v>832</v>
+      </c>
+      <c r="F263" t="s">
         <v>833</v>
       </c>
-      <c r="D263" t="s">
-        <v>834</v>
-      </c>
-      <c r="E263" t="s">
-        <v>835</v>
-      </c>
-      <c r="F263" t="s">
-        <v>836</v>
-      </c>
       <c r="G263" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H263" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHEM_TEST_FLOW_AVG_2</v>
       </c>
       <c r="I263" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J263" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11788,29 +11771,29 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B264" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C264" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E264" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F264" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G264" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H264" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T51-1_PID_OUTPUT</v>
       </c>
       <c r="I264" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J264" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11819,32 +11802,32 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B265" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C265" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D265" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E265" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F265" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G265" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H265" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_T-51-10_RAW</v>
       </c>
       <c r="I265" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J265" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11853,32 +11836,32 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B266" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C266" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D266" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E266" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F266" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G266" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H266" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_EAST_DRIER_FLOW</v>
       </c>
       <c r="I266" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J266" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11887,16 +11870,16 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B267" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C267" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D267" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E267" t="s">
         <v>157</v>
@@ -11921,29 +11904,29 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B268" t="s">
+        <v>844</v>
+      </c>
+      <c r="C268" t="s">
+        <v>845</v>
+      </c>
+      <c r="E268" t="s">
+        <v>846</v>
+      </c>
+      <c r="F268" t="s">
         <v>847</v>
       </c>
-      <c r="C268" t="s">
+      <c r="G268" t="s">
+        <v>847</v>
+      </c>
+      <c r="H268" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_DEW_51-1_RAW</v>
+      </c>
+      <c r="I268" t="s">
         <v>848</v>
-      </c>
-      <c r="E268" t="s">
-        <v>849</v>
-      </c>
-      <c r="F268" t="s">
-        <v>850</v>
-      </c>
-      <c r="G268" t="s">
-        <v>850</v>
-      </c>
-      <c r="H268" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_DEW_51-1_RAW</v>
-      </c>
-      <c r="I268" t="s">
-        <v>851</v>
       </c>
       <c r="J268" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -11952,22 +11935,22 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B269" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C269" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D269" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E269" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F269" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G269" t="s">
         <v>153</v>
@@ -11986,29 +11969,29 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>851</v>
+      </c>
+      <c r="B270" t="s">
+        <v>852</v>
+      </c>
+      <c r="D270" t="s">
+        <v>853</v>
+      </c>
+      <c r="E270" t="s">
         <v>854</v>
       </c>
-      <c r="B270" t="s">
+      <c r="F270" t="s">
         <v>855</v>
       </c>
-      <c r="D270" t="s">
-        <v>856</v>
-      </c>
-      <c r="E270" t="s">
-        <v>857</v>
-      </c>
-      <c r="F270" t="s">
-        <v>858</v>
-      </c>
       <c r="G270" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H270" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHILLER_NOT_RUNNING</v>
       </c>
       <c r="I270" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J270" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12017,29 +12000,29 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B271" t="s">
+        <v>856</v>
+      </c>
+      <c r="D271" t="s">
+        <v>857</v>
+      </c>
+      <c r="E271" t="s">
+        <v>858</v>
+      </c>
+      <c r="F271" t="s">
         <v>859</v>
       </c>
-      <c r="D271" t="s">
+      <c r="G271" t="s">
+        <v>859</v>
+      </c>
+      <c r="H271" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHILLER#1_COMP#6</v>
+      </c>
+      <c r="I271" t="s">
         <v>860</v>
-      </c>
-      <c r="E271" t="s">
-        <v>861</v>
-      </c>
-      <c r="F271" t="s">
-        <v>862</v>
-      </c>
-      <c r="G271" t="s">
-        <v>862</v>
-      </c>
-      <c r="H271" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHILLER#1_COMP#6</v>
-      </c>
-      <c r="I271" t="s">
-        <v>863</v>
       </c>
       <c r="J271" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12048,29 +12031,29 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B272" t="s">
+        <v>861</v>
+      </c>
+      <c r="D272" t="s">
+        <v>862</v>
+      </c>
+      <c r="E272" t="s">
+        <v>863</v>
+      </c>
+      <c r="F272" t="s">
         <v>864</v>
       </c>
-      <c r="D272" t="s">
+      <c r="G272" t="s">
+        <v>864</v>
+      </c>
+      <c r="H272" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHILLER#1_COMP#5</v>
+      </c>
+      <c r="I272" t="s">
         <v>865</v>
-      </c>
-      <c r="E272" t="s">
-        <v>866</v>
-      </c>
-      <c r="F272" t="s">
-        <v>867</v>
-      </c>
-      <c r="G272" t="s">
-        <v>867</v>
-      </c>
-      <c r="H272" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHILLER#1_COMP#5</v>
-      </c>
-      <c r="I272" t="s">
-        <v>868</v>
       </c>
       <c r="J272" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12079,29 +12062,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B273" t="s">
+        <v>866</v>
+      </c>
+      <c r="D273" t="s">
+        <v>867</v>
+      </c>
+      <c r="E273" t="s">
+        <v>868</v>
+      </c>
+      <c r="F273" t="s">
         <v>869</v>
       </c>
-      <c r="D273" t="s">
+      <c r="G273" t="s">
+        <v>869</v>
+      </c>
+      <c r="H273" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHILLER#1_COMP#4</v>
+      </c>
+      <c r="I273" t="s">
         <v>870</v>
-      </c>
-      <c r="E273" t="s">
-        <v>871</v>
-      </c>
-      <c r="F273" t="s">
-        <v>872</v>
-      </c>
-      <c r="G273" t="s">
-        <v>872</v>
-      </c>
-      <c r="H273" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHILLER#1_COMP#4</v>
-      </c>
-      <c r="I273" t="s">
-        <v>873</v>
       </c>
       <c r="J273" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12110,29 +12093,29 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B274" t="s">
+        <v>871</v>
+      </c>
+      <c r="D274" t="s">
+        <v>872</v>
+      </c>
+      <c r="E274" t="s">
+        <v>873</v>
+      </c>
+      <c r="F274" t="s">
         <v>874</v>
       </c>
-      <c r="D274" t="s">
+      <c r="G274" t="s">
+        <v>874</v>
+      </c>
+      <c r="H274" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHILLER#1_COMP#3</v>
+      </c>
+      <c r="I274" t="s">
         <v>875</v>
-      </c>
-      <c r="E274" t="s">
-        <v>876</v>
-      </c>
-      <c r="F274" t="s">
-        <v>877</v>
-      </c>
-      <c r="G274" t="s">
-        <v>877</v>
-      </c>
-      <c r="H274" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHILLER#1_COMP#3</v>
-      </c>
-      <c r="I274" t="s">
-        <v>878</v>
       </c>
       <c r="J274" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12141,29 +12124,29 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B275" t="s">
+        <v>876</v>
+      </c>
+      <c r="D275" t="s">
+        <v>877</v>
+      </c>
+      <c r="E275" t="s">
+        <v>878</v>
+      </c>
+      <c r="F275" t="s">
         <v>879</v>
       </c>
-      <c r="D275" t="s">
+      <c r="G275" t="s">
+        <v>879</v>
+      </c>
+      <c r="H275" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_CHILLER#1_COMP#2</v>
+      </c>
+      <c r="I275" t="s">
         <v>880</v>
-      </c>
-      <c r="E275" t="s">
-        <v>881</v>
-      </c>
-      <c r="F275" t="s">
-        <v>882</v>
-      </c>
-      <c r="G275" t="s">
-        <v>882</v>
-      </c>
-      <c r="H275" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_CHILLER#1_COMP#2</v>
-      </c>
-      <c r="I275" t="s">
-        <v>883</v>
       </c>
       <c r="J275" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12172,29 +12155,29 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B276" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D276" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E276" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F276" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G276" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H276" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_CHILLER#1_COMP#1</v>
       </c>
       <c r="I276" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J276" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12203,29 +12186,29 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B277" t="s">
+        <v>883</v>
+      </c>
+      <c r="D277" t="s">
+        <v>884</v>
+      </c>
+      <c r="E277" t="s">
+        <v>885</v>
+      </c>
+      <c r="F277" t="s">
         <v>886</v>
       </c>
-      <c r="D277" t="s">
-        <v>887</v>
-      </c>
-      <c r="E277" t="s">
-        <v>888</v>
-      </c>
-      <c r="F277" t="s">
-        <v>889</v>
-      </c>
       <c r="G277" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H277" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_EAST_DOOR</v>
       </c>
       <c r="I277" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J277" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12234,26 +12217,26 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B278" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E278" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F278" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G278" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H278" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_EAST_OSC_ARM_INVERT</v>
       </c>
       <c r="I278" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J278" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12262,29 +12245,29 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B279" t="s">
+        <v>888</v>
+      </c>
+      <c r="D279" t="s">
+        <v>889</v>
+      </c>
+      <c r="E279" t="s">
+        <v>890</v>
+      </c>
+      <c r="F279" t="s">
         <v>891</v>
       </c>
-      <c r="D279" t="s">
-        <v>892</v>
-      </c>
-      <c r="E279" t="s">
-        <v>893</v>
-      </c>
-      <c r="F279" t="s">
-        <v>894</v>
-      </c>
       <c r="G279" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H279" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRIER_FLOW_SPIKE_ALARM</v>
       </c>
       <c r="I279" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J279" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12293,29 +12276,29 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B280" t="s">
+        <v>892</v>
+      </c>
+      <c r="D280" t="s">
+        <v>893</v>
+      </c>
+      <c r="E280" t="s">
+        <v>894</v>
+      </c>
+      <c r="F280" t="s">
         <v>895</v>
       </c>
-      <c r="D280" t="s">
-        <v>896</v>
-      </c>
-      <c r="E280" t="s">
-        <v>897</v>
-      </c>
-      <c r="F280" t="s">
-        <v>898</v>
-      </c>
       <c r="G280" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H280" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_FINE_GRIND_ALARM</v>
       </c>
       <c r="I280" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J280" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12324,29 +12307,29 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B281" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D281" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E281" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F281" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G281" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H281" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_DRI_LOCAL_ALM_LOCKOUT_DI</v>
       </c>
       <c r="I281" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J281" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12355,29 +12338,29 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B282" t="s">
+        <v>897</v>
+      </c>
+      <c r="D282" t="s">
+        <v>898</v>
+      </c>
+      <c r="E282" t="s">
+        <v>899</v>
+      </c>
+      <c r="F282" t="s">
         <v>900</v>
       </c>
-      <c r="D282" t="s">
+      <c r="G282" t="s">
+        <v>900</v>
+      </c>
+      <c r="H282" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU52-2B_PROVE</v>
+      </c>
+      <c r="I282" t="s">
         <v>901</v>
-      </c>
-      <c r="E282" t="s">
-        <v>902</v>
-      </c>
-      <c r="F282" t="s">
-        <v>903</v>
-      </c>
-      <c r="G282" t="s">
-        <v>903</v>
-      </c>
-      <c r="H282" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU52-2B_PROVE</v>
-      </c>
-      <c r="I282" t="s">
-        <v>904</v>
       </c>
       <c r="J282" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12386,29 +12369,29 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B283" t="s">
+        <v>902</v>
+      </c>
+      <c r="D283" t="s">
+        <v>903</v>
+      </c>
+      <c r="E283" t="s">
+        <v>904</v>
+      </c>
+      <c r="F283" t="s">
         <v>905</v>
       </c>
-      <c r="D283" t="s">
+      <c r="G283" t="s">
+        <v>905</v>
+      </c>
+      <c r="H283" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU52-2A_PROVE</v>
+      </c>
+      <c r="I283" t="s">
         <v>906</v>
-      </c>
-      <c r="E283" t="s">
-        <v>907</v>
-      </c>
-      <c r="F283" t="s">
-        <v>908</v>
-      </c>
-      <c r="G283" t="s">
-        <v>908</v>
-      </c>
-      <c r="H283" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU52-2A_PROVE</v>
-      </c>
-      <c r="I283" t="s">
-        <v>909</v>
       </c>
       <c r="J283" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12417,29 +12400,29 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B284" t="s">
+        <v>907</v>
+      </c>
+      <c r="D284" t="s">
+        <v>908</v>
+      </c>
+      <c r="E284" t="s">
+        <v>909</v>
+      </c>
+      <c r="F284" t="s">
         <v>910</v>
       </c>
-      <c r="D284" t="s">
+      <c r="G284" t="s">
+        <v>910</v>
+      </c>
+      <c r="H284" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU51-2B_PROVE</v>
+      </c>
+      <c r="I284" t="s">
         <v>911</v>
-      </c>
-      <c r="E284" t="s">
-        <v>912</v>
-      </c>
-      <c r="F284" t="s">
-        <v>913</v>
-      </c>
-      <c r="G284" t="s">
-        <v>913</v>
-      </c>
-      <c r="H284" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU51-2B_PROVE</v>
-      </c>
-      <c r="I284" t="s">
-        <v>914</v>
       </c>
       <c r="J284" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12448,29 +12431,29 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B285" t="s">
+        <v>912</v>
+      </c>
+      <c r="D285" t="s">
+        <v>913</v>
+      </c>
+      <c r="E285" t="s">
+        <v>914</v>
+      </c>
+      <c r="F285" t="s">
         <v>915</v>
       </c>
-      <c r="D285" t="s">
+      <c r="G285" t="s">
+        <v>915</v>
+      </c>
+      <c r="H285" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU-51-2A_PROVE</v>
+      </c>
+      <c r="I285" t="s">
         <v>916</v>
-      </c>
-      <c r="E285" t="s">
-        <v>917</v>
-      </c>
-      <c r="F285" t="s">
-        <v>918</v>
-      </c>
-      <c r="G285" t="s">
-        <v>918</v>
-      </c>
-      <c r="H285" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU-51-2A_PROVE</v>
-      </c>
-      <c r="I285" t="s">
-        <v>919</v>
       </c>
       <c r="J285" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12479,29 +12462,29 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B286" t="s">
+        <v>917</v>
+      </c>
+      <c r="D286" t="s">
+        <v>918</v>
+      </c>
+      <c r="E286" t="s">
+        <v>919</v>
+      </c>
+      <c r="F286" t="s">
         <v>920</v>
       </c>
-      <c r="D286" t="s">
+      <c r="G286" t="s">
+        <v>920</v>
+      </c>
+      <c r="H286" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU-51-1B_PROVE</v>
+      </c>
+      <c r="I286" t="s">
         <v>921</v>
-      </c>
-      <c r="E286" t="s">
-        <v>922</v>
-      </c>
-      <c r="F286" t="s">
-        <v>923</v>
-      </c>
-      <c r="G286" t="s">
-        <v>923</v>
-      </c>
-      <c r="H286" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU-51-1B_PROVE</v>
-      </c>
-      <c r="I286" t="s">
-        <v>924</v>
       </c>
       <c r="J286" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12510,29 +12493,29 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B287" t="s">
+        <v>922</v>
+      </c>
+      <c r="D287" t="s">
+        <v>923</v>
+      </c>
+      <c r="E287" t="s">
+        <v>924</v>
+      </c>
+      <c r="F287" t="s">
         <v>925</v>
       </c>
-      <c r="D287" t="s">
+      <c r="G287" t="s">
+        <v>925</v>
+      </c>
+      <c r="H287" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_PU-51-1A_PROVE</v>
+      </c>
+      <c r="I287" t="s">
         <v>926</v>
-      </c>
-      <c r="E287" t="s">
-        <v>927</v>
-      </c>
-      <c r="F287" t="s">
-        <v>928</v>
-      </c>
-      <c r="G287" t="s">
-        <v>928</v>
-      </c>
-      <c r="H287" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_PU-51-1A_PROVE</v>
-      </c>
-      <c r="I287" t="s">
-        <v>929</v>
       </c>
       <c r="J287" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12541,29 +12524,29 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B288" t="s">
+        <v>927</v>
+      </c>
+      <c r="D288" t="s">
+        <v>928</v>
+      </c>
+      <c r="E288" t="s">
+        <v>929</v>
+      </c>
+      <c r="F288" t="s">
         <v>930</v>
       </c>
-      <c r="D288" t="s">
+      <c r="G288" t="s">
+        <v>930</v>
+      </c>
+      <c r="H288" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_EAST_FLOW&lt;8L/M</v>
+      </c>
+      <c r="I288" t="s">
         <v>931</v>
-      </c>
-      <c r="E288" t="s">
-        <v>932</v>
-      </c>
-      <c r="F288" t="s">
-        <v>933</v>
-      </c>
-      <c r="G288" t="s">
-        <v>933</v>
-      </c>
-      <c r="H288" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_EAST_FLOW&lt;8L/M</v>
-      </c>
-      <c r="I288" t="s">
-        <v>934</v>
       </c>
       <c r="J288" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12572,29 +12555,29 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B289" t="s">
+        <v>932</v>
+      </c>
+      <c r="D289" t="s">
+        <v>933</v>
+      </c>
+      <c r="E289" t="s">
+        <v>934</v>
+      </c>
+      <c r="F289" t="s">
         <v>935</v>
       </c>
-      <c r="D289" t="s">
+      <c r="G289" t="s">
+        <v>935</v>
+      </c>
+      <c r="H289" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_EAST_FLOW&lt;10_L/M</v>
+      </c>
+      <c r="I289" t="s">
         <v>936</v>
-      </c>
-      <c r="E289" t="s">
-        <v>937</v>
-      </c>
-      <c r="F289" t="s">
-        <v>938</v>
-      </c>
-      <c r="G289" t="s">
-        <v>938</v>
-      </c>
-      <c r="H289" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_EAST_FLOW&lt;10_L/M</v>
-      </c>
-      <c r="I289" t="s">
-        <v>939</v>
       </c>
       <c r="J289" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12603,29 +12586,29 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B290" t="s">
+        <v>937</v>
+      </c>
+      <c r="D290" t="s">
+        <v>938</v>
+      </c>
+      <c r="E290" t="s">
+        <v>939</v>
+      </c>
+      <c r="F290" t="s">
         <v>940</v>
       </c>
-      <c r="D290" t="s">
+      <c r="G290" t="s">
+        <v>940</v>
+      </c>
+      <c r="H290" t="str">
+        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
+        <v>CP_EAST_FLOW&lt;11_L/M</v>
+      </c>
+      <c r="I290" t="s">
         <v>941</v>
-      </c>
-      <c r="E290" t="s">
-        <v>942</v>
-      </c>
-      <c r="F290" t="s">
-        <v>943</v>
-      </c>
-      <c r="G290" t="s">
-        <v>943</v>
-      </c>
-      <c r="H290" t="str">
-        <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
-        <v>CP_EAST_FLOW&lt;11_L/M</v>
-      </c>
-      <c r="I290" t="s">
-        <v>944</v>
       </c>
       <c r="J290" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12634,29 +12617,29 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B291" t="s">
+        <v>942</v>
+      </c>
+      <c r="D291" t="s">
+        <v>943</v>
+      </c>
+      <c r="E291" t="s">
+        <v>944</v>
+      </c>
+      <c r="F291" t="s">
         <v>945</v>
       </c>
-      <c r="D291" t="s">
-        <v>946</v>
-      </c>
-      <c r="E291" t="s">
-        <v>947</v>
-      </c>
-      <c r="F291" t="s">
-        <v>948</v>
-      </c>
       <c r="G291" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H291" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SYS_WATCH_DRIER_CLOSE</v>
       </c>
       <c r="I291" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J291" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12665,29 +12648,29 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B292" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D292" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E292" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F292" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G292" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H292" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_SYS_WATCH_DRIER_OPEN</v>
       </c>
       <c r="I292" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J292" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12696,29 +12679,29 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B293" t="s">
+        <v>947</v>
+      </c>
+      <c r="D293" t="s">
+        <v>948</v>
+      </c>
+      <c r="E293" t="s">
+        <v>949</v>
+      </c>
+      <c r="F293" t="s">
         <v>950</v>
       </c>
-      <c r="D293" t="s">
-        <v>951</v>
-      </c>
-      <c r="E293" t="s">
-        <v>952</v>
-      </c>
-      <c r="F293" t="s">
-        <v>953</v>
-      </c>
       <c r="G293" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H293" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_LSHH1</v>
       </c>
       <c r="I293" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J293" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12727,29 +12710,29 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B294" t="s">
+        <v>951</v>
+      </c>
+      <c r="D294" t="s">
+        <v>952</v>
+      </c>
+      <c r="E294" t="s">
+        <v>953</v>
+      </c>
+      <c r="F294" t="s">
         <v>954</v>
       </c>
-      <c r="D294" t="s">
-        <v>955</v>
-      </c>
-      <c r="E294" t="s">
-        <v>956</v>
-      </c>
-      <c r="F294" t="s">
-        <v>957</v>
-      </c>
       <c r="G294" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H294" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_LSH1</v>
       </c>
       <c r="I294" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J294" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12758,29 +12741,29 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B295" t="s">
+        <v>955</v>
+      </c>
+      <c r="D295" t="s">
+        <v>956</v>
+      </c>
+      <c r="E295" t="s">
+        <v>957</v>
+      </c>
+      <c r="F295" t="s">
         <v>958</v>
       </c>
-      <c r="D295" t="s">
-        <v>959</v>
-      </c>
-      <c r="E295" t="s">
-        <v>960</v>
-      </c>
-      <c r="F295" t="s">
-        <v>961</v>
-      </c>
       <c r="G295" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H295" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_LSH2</v>
       </c>
       <c r="I295" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J295" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12789,29 +12772,29 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B296" t="s">
+        <v>959</v>
+      </c>
+      <c r="D296" t="s">
+        <v>960</v>
+      </c>
+      <c r="E296" t="s">
+        <v>961</v>
+      </c>
+      <c r="F296" t="s">
         <v>962</v>
       </c>
-      <c r="D296" t="s">
-        <v>963</v>
-      </c>
-      <c r="E296" t="s">
-        <v>964</v>
-      </c>
-      <c r="F296" t="s">
-        <v>965</v>
-      </c>
       <c r="G296" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H296" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_FAULT</v>
       </c>
       <c r="I296" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J296" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
@@ -12820,29 +12803,29 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B297" t="s">
+        <v>963</v>
+      </c>
+      <c r="D297" t="s">
+        <v>964</v>
+      </c>
+      <c r="E297" t="s">
+        <v>965</v>
+      </c>
+      <c r="F297" t="s">
         <v>966</v>
       </c>
-      <c r="D297" t="s">
-        <v>967</v>
-      </c>
-      <c r="E297" t="s">
-        <v>968</v>
-      </c>
-      <c r="F297" t="s">
-        <v>969</v>
-      </c>
       <c r="G297" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H297" t="str">
         <f>_xlfn.CONCAT("CP_",Table1[[#This Row],[TAG]])</f>
         <v>CP_IDH_SATAKE_BYPASS_REMINDER</v>
       </c>
       <c r="I297" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J297" t="str">
         <f>_xlfn.CONCAT("ABR_Central.Central.",Table1[[#This Row],[New_Address]])</f>
